--- a/medicine/Psychotrope/Teeling/Teeling.xlsx
+++ b/medicine/Psychotrope/Teeling/Teeling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Teeling est une distillerie irlandaise située dans la ville de Dublin. Mise en service fin 2014, c'est la première distillerie à ouvrir dans la ville depuis 125 ans.
-La distillerie possède 3 alambics de type pot still en cuivre et annonce une capacité de production de 500 000 litres[1] par an. Teeling est majoritairement détenue par Bacardi depuis 2023.
+La distillerie possède 3 alambics de type pot still en cuivre et annonce une capacité de production de 500 000 litres par an. Teeling est majoritairement détenue par Bacardi depuis 2023.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Teeling ouvre la distillerie Teeling en 1782 sur Marrowbone Lane à Dublin. Il est en compétition avec 37 autres distilleries installées dans la ville. Après un siècle d'opération, l'affaire est rachetée par un membre de la famille Jameson et la distillerie est contrainte de cesser ses opérations[2].
-En 1987, John Teeling, descendant de la famille Teeling, ouvre la distillerie Cooley Distillery à Dublin dans un effort de relance de l'économie du whisky irlandais. Cooley Distillery est alors la seule distillerie indépendante du pays. Lorsque John Teeling vend Cooley Distillery à Jim Beam et Maker's Mark en 2012, ses deux fils Jack and Stephen Teeling lancent la distillerie Teeling, dont le site de production est adjacent à la distillerie Cooley à laquelle la nouvelle distillerie a aussi emprunté ses premiers stocks. Le premier whisky produit par la nouvelle distillerie est commercialisé en 2015[2]. En 2017, Bacardi devient actionnaire à 40% de la société Teeling[3],[4]. En 2023, Bacardi porte sa participation à 79%, et Teeling annonce un investissement de 10 millions d'euros pour doubler sa capacité de production[5],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Teeling ouvre la distillerie Teeling en 1782 sur Marrowbone Lane à Dublin. Il est en compétition avec 37 autres distilleries installées dans la ville. Après un siècle d'opération, l'affaire est rachetée par un membre de la famille Jameson et la distillerie est contrainte de cesser ses opérations.
+En 1987, John Teeling, descendant de la famille Teeling, ouvre la distillerie Cooley Distillery à Dublin dans un effort de relance de l'économie du whisky irlandais. Cooley Distillery est alors la seule distillerie indépendante du pays. Lorsque John Teeling vend Cooley Distillery à Jim Beam et Maker's Mark en 2012, ses deux fils Jack and Stephen Teeling lancent la distillerie Teeling, dont le site de production est adjacent à la distillerie Cooley à laquelle la nouvelle distillerie a aussi emprunté ses premiers stocks. Le premier whisky produit par la nouvelle distillerie est commercialisé en 2015. En 2017, Bacardi devient actionnaire à 40% de la société Teeling,. En 2023, Bacardi porte sa participation à 79%, et Teeling annonce un investissement de 10 millions d'euros pour doubler sa capacité de production,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distillerie produit 500 000 bouteilles par an[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie produit 500 000 bouteilles par an.
 Gamme courante : ces whiskies sont disponibles tout au long de l'année, sans quantité limitée. Ils présentent tous des caractéristiques communes : une réduction à 46 % et une non-filtration à froid (non chill filtered).
 Small batch 46 %
 Single Grain 46 %
